--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="회원정보보기" sheetId="6" r:id="rId6"/>
     <sheet name="회원정보수정" sheetId="7" r:id="rId7"/>
     <sheet name="회원탈퇴" sheetId="8" r:id="rId8"/>
+    <sheet name="랭킹게시판" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,16 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1) 아이디/비번/비번확인/이름/이메일/성별/부수 입력
-2) 빈칸 있으면 회원가입 안됨. 반드시 꽉 채워서
-3) 아이디, 비번은 항상 8~15자의 영소문자+숫자 혼합으로 설정 가능
-4) 이름은 한글로만 입력 가능
-5) 부수는 반드시 숫자 선택
-6) 비번과 비번확인은 항상 같아야 함.
-7) 이메일 양식 지키기(~~@~~)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디찾기 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,12 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1) 이름/이메일 입력
-2) 해당 이름이나 이메일이 DB에 없으면 경고문 띄우기('아이디가 존재하지 않습니다.')
-3) 일치하는 이름+이메일이 DB에 있는 경우 해당 유저의 아이디를 경고문으로 띄우기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,22 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1) 이름/아이디/이메일 입력
-2) 해당 이름/아이디/이메일이 DB에 없으면 경고문 띄우기('존재하는 계정이 없습니다.')
-3) 해당 이름+아이디+이메일이 일치하는 계정이 DB에 있는 경우, 임시 비번을 해당 이메일로 발급 후 임시비번 발급했다는 경고문 띄우기
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 아이디, 이름, 성별, 부수, 이메일, 내소개, 랭킹, 입상횟수 출력
-2) 모두 접근 가능, 단 이메일 보는거랑/회원정보수정/회원탈퇴 버튼은 본인만 볼 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show_userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> what&gt;메인페이지&gt;유저페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">myinfoModify.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 비번 입력해서 현재 세션 유지 중인 유저의 비밀번호와 일치해야 회원 정보 수정이 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,11 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1) 비번 입력 시 회원정보 삭제 (userAvailable=0)
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 로그인한 사람의 경우, 오른쪽 상단에 마이페이지/로그아웃 버튼 뜨도록 함(o)</t>
   </si>
   <si>
@@ -281,6 +241,73 @@
   </si>
   <si>
     <t>2) 해당 아이디가 디비에 없으면 로그인 실패</t>
+  </si>
+  <si>
+    <t>1) 아이디/비번/비번확인/이름/이메일/성별/부수 입력</t>
+  </si>
+  <si>
+    <t>2) 빈칸 있으면 회원가입 안됨. 반드시 꽉 채워서</t>
+  </si>
+  <si>
+    <t>3) 아이디, 비번은 항상 8~15자의 영소문자+숫자 혼합으로 설정 가능</t>
+  </si>
+  <si>
+    <t>4) 이름은 한글로만 입력 가능</t>
+  </si>
+  <si>
+    <t>5) 부수는 반드시 숫자 선택</t>
+  </si>
+  <si>
+    <t>6) 비번과 비번확인은 항상 같아야 함.</t>
+  </si>
+  <si>
+    <t>7) 이메일 양식 지키기(~~@~~)</t>
+  </si>
+  <si>
+    <t>1) 이름/이메일 입력</t>
+  </si>
+  <si>
+    <t>2) 해당 이름이나 이메일이 DB에 없으면 경고문 띄우기('아이디가 존재하지 않습니다.')</t>
+  </si>
+  <si>
+    <t>3) 일치하는 이름+이메일이 DB에 있는 경우 해당 유저의 아이디를 경고문으로 띄우기</t>
+  </si>
+  <si>
+    <t>1) 이름/아이디/이메일 입력</t>
+  </si>
+  <si>
+    <t>2) 해당 이름/아이디/이메일이 DB에 없으면 경고문 띄우기('존재하는 계정이 없습니다.')</t>
+  </si>
+  <si>
+    <t>3) 해당 이름+아이디+이메일이 일치하는 계정이 DB에 있는 경우, 임시 비번을 해당 이메일로 발급 후 임시비번 발급했다는 경고문 띄우기</t>
+  </si>
+  <si>
+    <t>1) 아이디, 이름, 성별, 부수, 이메일, 내소개, 랭킹, 입상횟수 출력</t>
+  </si>
+  <si>
+    <t>2) 모두 접근 가능, 단 이메일 보는거랑/회원정보수정/회원탈퇴 버튼은 본인만 볼 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show_userInfo.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 비번 입력해서 현재 세션 유지 중인 유저의 비밀번호와 일치해야 회원 정보 수정이 가능</t>
+  </si>
+  <si>
+    <t>1) 비번 입력 시 회원정보 삭제 (userAvailable=0)</t>
+  </si>
+  <si>
+    <t>랭킹게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;랭킹게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rank.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -368,29 +395,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -404,20 +413,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,7 +1173,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>317688</xdr:colOff>
+      <xdr:colOff>120838</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
@@ -1178,7 +1211,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>984250</xdr:colOff>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>107419</xdr:rowOff>
     </xdr:to>
@@ -1222,8 +1255,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>877887</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1699,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14:H14"/>
     </sheetView>
   </sheetViews>
@@ -1710,301 +1743,289 @@
     <col min="6" max="6" width="13.4140625" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="37.5" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="12"/>
+    <col min="9" max="9" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="12" t="s">
-        <v>57</v>
+      <c r="G3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="8" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="1" t="s">
+      <c r="I17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="14" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="16" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="17" t="s">
+      <c r="I20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="1" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="8" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -2014,6 +2035,18 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2026,7 +2059,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2039,102 +2072,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="G3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="8"/>
+      <c r="G4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="G5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2155,7 +2188,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2168,128 +2201,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="G3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2302,7 +2346,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2318,92 +2362,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="G3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2416,7 +2463,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2429,104 +2476,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="G3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2538,142 +2588,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="16.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
     <col min="6" max="6" width="13.58203125" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="G3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2686,7 +2737,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2699,277 +2750,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G21:H51"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G3:H16"/>
-    <mergeCell ref="G21:H51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2982,7 +3033,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2996,103 +3047,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="G3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="22.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.9140625" customWidth="1"/>
+    <col min="7" max="7" width="18.4140625" customWidth="1"/>
+    <col min="8" max="8" width="14.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="회원가입" sheetId="3" r:id="rId3"/>
     <sheet name="아이디찾기" sheetId="4" r:id="rId4"/>
     <sheet name="비밀번호찾기" sheetId="5" r:id="rId5"/>
-    <sheet name="회원정보보기" sheetId="6" r:id="rId6"/>
+    <sheet name="마이페이지" sheetId="6" r:id="rId6"/>
     <sheet name="회원정보수정" sheetId="7" r:id="rId7"/>
     <sheet name="회원탈퇴" sheetId="8" r:id="rId8"/>
     <sheet name="랭킹게시판" sheetId="9" r:id="rId9"/>
@@ -112,14 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> what&gt;메인페이지&gt;유저페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원정보수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,10 +121,6 @@
   </si>
   <si>
     <t>회원정보수정_전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> what&gt;메인페이지&gt;유저페이지&gt;회원정보수정_전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> what&gt;메인페이지&gt;유저페이지&gt;회원탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 로그인한 사람의 경우, 오른쪽 상단에 마이페이지/로그아웃 버튼 뜨도록 함(o)</t>
   </si>
   <si>
@@ -288,10 +272,6 @@
     <t>2) 모두 접근 가능, 단 이메일 보는거랑/회원정보수정/회원탈퇴 버튼은 본인만 볼 수 있음</t>
   </si>
   <si>
-    <t xml:space="preserve">show_userInfo.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 비번 입력해서 현재 세션 유지 중인 유저의 비밀번호와 일치해야 회원 정보 수정이 가능</t>
   </si>
   <si>
@@ -307,6 +287,26 @@
   </si>
   <si>
     <t xml:space="preserve">rank.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mypage.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;마이페이지&gt;회원정보수정_전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;마이페이지&gt;회원탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,23 +416,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -446,11 +434,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1772,196 +1772,196 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="6" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G10" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="10" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="10" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="9" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="12" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G17" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="10"/>
+      <c r="G18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="14"/>
       <c r="I18" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="10"/>
+      <c r="G19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="14"/>
       <c r="I19" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G20" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="4" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="10"/>
+      <c r="G22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="14"/>
       <c r="I22" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="8"/>
+      <c r="G23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="19"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -2026,6 +2026,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -2040,13 +2047,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2097,37 +2097,37 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="17"/>
+      <c r="G3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="10"/>
+      <c r="G4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="G5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -2226,61 +2226,61 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="19" t="s">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="19" t="s">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G10" s="3"/>
@@ -2387,65 +2387,65 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="18"/>
+      <c r="G3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="G4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="G5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2501,77 +2501,77 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="18"/>
+      <c r="G3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="G4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="G5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2589,7 +2589,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2627,99 +2627,99 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="18"/>
+      <c r="G3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="G4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2737,7 +2737,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2775,90 +2775,90 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="17"/>
+      <c r="G3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>3</v>
@@ -2873,145 +2873,145 @@
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="17"/>
+      <c r="G21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3032,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3051,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -3072,69 +3072,69 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="18"/>
+      <c r="G3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3151,7 +3151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -3169,13 +3169,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -3190,19 +3190,19 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="회원정보수정" sheetId="7" r:id="rId7"/>
     <sheet name="회원탈퇴" sheetId="8" r:id="rId8"/>
     <sheet name="랭킹게시판" sheetId="9" r:id="rId9"/>
+    <sheet name="faq" sheetId="10" r:id="rId10"/>
+    <sheet name="team" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +309,90 @@
   </si>
   <si>
     <t xml:space="preserve"> what&gt;메인페이지&gt;마이페이지&gt;회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) user 테이블에서 랭킹순/이름순으로 오름차순 정렬하여 회원정보 list로 갖고옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 한 페이지 당 20명씩 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 20명 이상인 경우 다음 페이지로 넘김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 순위는 우승 횟수 &gt; 준우승 횟수 &gt; 3위 횟수 순으로 결정됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) 중복 횟수 존재 가능(5위가 2명인 경우 다음 순위는 7위부터 카운트하기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7) 이름을 통해 회원 검색 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* jquery랑 javascript 이용해서 테이블 내용만 바뀔 수 있도록 하자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 지금은 이름 검색하면 rankSearch 페이지로 이동됨. -&gt; 시간 오래걸림..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;faq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">faq.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 질문 누르면 dropdown으로 답변 보일 수 있도록 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 아이디에 a태그 걸어서 클릭하면 해당 user의 모든 정보(비밀번호, 이메일 제외) 열람할 수 있도록 함(show_userInfo 페이지로 이동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원찾기 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;팀원찾기 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">team.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 부수별로 검색 가능 -&gt; 1부 선택하면 부수가 1부인 회원들 이름순으로 나열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 평소에는 이름 순으로 나역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 이름, 성별, 부수, 아이디, 소개가 보이도록 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 아이디 누르면 show_userInfo 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 한 페이지 당 20명씩 출력(그 이상은 다음페이지로 넘김)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +419,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -395,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -422,6 +523,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -435,13 +548,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -449,9 +556,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -911,6 +1018,130 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>887298</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="495300"/>
+          <a:ext cx="5687898" cy="3498850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1282700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="520700"/>
+          <a:ext cx="5810250" cy="1935150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1202239</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="2463800"/>
+          <a:ext cx="5463089" cy="3136900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1443,6 +1674,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1019387</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="647701"/>
+          <a:ext cx="5839037" cy="3727450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="5829300" cy="1802827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1733,7 +2045,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1772,135 +2084,137 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="23">
+        <v>44222</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="4" t="s">
         <v>46</v>
       </c>
@@ -1914,19 +2228,19 @@
       </c>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="4" t="s">
         <v>46</v>
       </c>
@@ -1940,28 +2254,28 @@
       </c>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -2026,13 +2340,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -2047,6 +2354,183 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23">
+        <v>44223</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="18.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" customWidth="1"/>
+    <col min="7" max="7" width="17.9140625" customWidth="1"/>
+    <col min="8" max="8" width="16.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23">
+        <v>44223</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2059,7 +2543,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2097,37 +2581,39 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="23">
+        <v>44222</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -2188,7 +2674,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2226,19 +2712,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="23">
+        <v>44222</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -2346,7 +2834,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2387,19 +2875,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="23">
+        <v>44222</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -2463,7 +2953,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2501,19 +2991,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="23">
+        <v>44222</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -2589,7 +3081,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2627,19 +3119,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="23">
+        <v>44222</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -2737,7 +3231,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2775,25 +3269,27 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="23">
+        <v>44222</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -2873,145 +3369,145 @@
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3032,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3072,19 +3568,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="23">
+        <v>44222</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -3149,10 +3647,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3190,19 +3688,66 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="23">
+        <v>44223</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G11" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G12" s="22" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3211,5 +3756,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,14 +333,6 @@
   </si>
   <si>
     <t>7) 이름을 통해 회원 검색 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* jquery랑 javascript 이용해서 테이블 내용만 바뀔 수 있도록 하자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 지금은 이름 검색하면 rankSearch 페이지로 이동됨. -&gt; 시간 오래걸림..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -526,15 +518,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -548,7 +534,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -556,9 +548,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2092,7 +2084,7 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>44222</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -2110,70 +2102,70 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="7" t="s">
         <v>46</v>
       </c>
@@ -2188,10 +2180,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="7" t="s">
         <v>46</v>
       </c>
@@ -2202,19 +2194,19 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="4" t="s">
         <v>46</v>
       </c>
@@ -2228,19 +2220,19 @@
       </c>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="4" t="s">
         <v>46</v>
       </c>
@@ -2254,28 +2246,28 @@
       </c>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -2340,6 +2332,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -2354,13 +2353,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2390,13 +2382,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
@@ -2412,14 +2404,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>44223</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -2429,7 +2421,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -2465,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
@@ -2487,14 +2479,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>44223</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -2504,27 +2496,27 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +2581,7 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>44222</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -2604,16 +2596,16 @@
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -2720,7 +2712,7 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>44222</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -2883,7 +2875,7 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>44222</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -2999,7 +2991,7 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>44222</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -3127,7 +3119,7 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>44222</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -3277,7 +3269,7 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>44222</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -3390,124 +3382,124 @@
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
     </row>
     <row r="49" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3576,7 +3568,7 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>44222</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -3649,8 +3641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3696,7 +3688,7 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="13">
         <v>44223</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -3721,7 +3713,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -3740,14 +3732,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="21" t="s">
-        <v>86</v>
-      </c>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="22" t="s">
-        <v>85</v>
-      </c>
+      <c r="G12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="99">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7) 이름을 통해 회원 검색 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FAQ페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,6 +381,14 @@
   </si>
   <si>
     <t>5) 한 페이지 당 20명씩 출력(그 이상은 다음페이지로 넘김)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7) 이름을 통해 회원 검색 가능(jquery)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,6 +525,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -534,13 +550,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -548,8 +558,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,8 +1037,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>887298</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1672,13 +1682,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1019387</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1696,7 +1706,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="647701"/>
+          <a:off x="0" y="514351"/>
           <a:ext cx="5839037" cy="3727450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1710,14 +1720,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>139127</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>132777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1734,7 +1744,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4381500"/>
+          <a:off x="0" y="4241800"/>
           <a:ext cx="5829300" cy="1802827"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2076,137 +2086,137 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="4" t="s">
         <v>46</v>
       </c>
@@ -2220,19 +2230,19 @@
       </c>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="4" t="s">
         <v>46</v>
       </c>
@@ -2246,28 +2256,28 @@
       </c>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -2332,13 +2342,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -2353,6 +2356,13 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2364,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2382,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
@@ -2403,31 +2413,33 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44223</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" s="14" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2457,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
@@ -2478,45 +2490,45 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44223</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2573,39 +2585,39 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -2704,21 +2716,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -2867,21 +2879,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -2983,21 +2995,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -3111,21 +3123,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -3261,27 +3273,27 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -3361,145 +3373,145 @@
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3560,21 +3572,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -3639,10 +3651,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3651,10 +3663,11 @@
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.9140625" customWidth="1"/>
     <col min="7" max="7" width="18.4140625" customWidth="1"/>
-    <col min="8" max="8" width="14.08203125" customWidth="1"/>
+    <col min="8" max="8" width="19.4140625" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3676,71 +3689,106 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44223</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" t="s">
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G4" s="17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G5" s="25" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" t="s">
+      <c r="H5" s="25"/>
+      <c r="I5" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G8" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H8" s="17"/>
+      <c r="I8" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G12" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,10 @@
   </si>
   <si>
     <t>7) 이름을 통해 회원 검색 가능(jquery)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 후 페이징처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,15 +532,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -550,13 +545,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2086,137 +2090,137 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="4" t="s">
         <v>46</v>
       </c>
@@ -2230,19 +2234,19 @@
       </c>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="4" t="s">
         <v>46</v>
       </c>
@@ -2256,28 +2260,28 @@
       </c>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -2342,6 +2346,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -2356,13 +2367,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2374,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2413,27 +2417,27 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44223</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2490,21 +2494,21 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44223</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
@@ -2585,39 +2589,39 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -2716,21 +2720,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -2879,21 +2883,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -2995,21 +2999,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -3123,21 +3127,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -3273,27 +3277,27 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -3373,145 +3377,145 @@
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
     </row>
     <row r="50" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
     </row>
     <row r="51" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3572,21 +3576,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8" t="s">
@@ -3653,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3693,36 +3697,36 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44223</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="6" t="s">
         <v>97</v>
       </c>
@@ -3737,43 +3741,45 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G12" s="12"/>

--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -12,19 +12,23 @@
     <sheet name="회원가입" sheetId="3" r:id="rId3"/>
     <sheet name="아이디찾기" sheetId="4" r:id="rId4"/>
     <sheet name="비밀번호찾기" sheetId="5" r:id="rId5"/>
-    <sheet name="마이페이지" sheetId="6" r:id="rId6"/>
-    <sheet name="회원정보수정" sheetId="7" r:id="rId7"/>
-    <sheet name="회원탈퇴" sheetId="8" r:id="rId8"/>
-    <sheet name="랭킹게시판" sheetId="9" r:id="rId9"/>
-    <sheet name="faq" sheetId="10" r:id="rId10"/>
-    <sheet name="team" sheetId="11" r:id="rId11"/>
+    <sheet name="회원정보보기" sheetId="14" r:id="rId6"/>
+    <sheet name="마이페이지" sheetId="6" r:id="rId7"/>
+    <sheet name="회원정보수정" sheetId="7" r:id="rId8"/>
+    <sheet name="회원탈퇴" sheetId="8" r:id="rId9"/>
+    <sheet name="랭킹게시판" sheetId="9" r:id="rId10"/>
+    <sheet name="faq" sheetId="10" r:id="rId11"/>
+    <sheet name="team" sheetId="11" r:id="rId12"/>
+    <sheet name="참가자확인(모임게시판)" sheetId="12" r:id="rId13"/>
+    <sheet name="참가신청 폼" sheetId="13" r:id="rId14"/>
+    <sheet name="공지게시판" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,30 +118,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">preModify.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원정보수정_전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> what&gt;메인페이지&gt;유저페이지&gt;회원정보수정_전&gt;회원정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">myinfoModify.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 회원정보를 수정하기 위해서는 반드시 현재 비밀번호를 입력해야함.
-2) 변경 가능한 정보는 비번/이메일/내소개/부수
-3) 비번 변경할 경우, 제한조건(8-15자의 영소문자+숫자 혼합)이 충족되어야함
-4) 이메일 변경할 경우 이메일 양식에 맞아야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,137 +132,6 @@
   <si>
     <t xml:space="preserve">delete.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 로그인한 사람의 경우, 오른쪽 상단에 마이페이지/로그아웃 버튼 뜨도록 함(o)</t>
-  </si>
-  <si>
-    <t>3. 관리자일 경우, 오른쪽 상단에 관리자페이지/로그아웃 버튼 뜨도록 함(o)</t>
-  </si>
-  <si>
-    <t>4. 모임 공지</t>
-  </si>
-  <si>
-    <t>5. 공지사항</t>
-  </si>
-  <si>
-    <t>1) 공지사항을 일반공지 파트와 모임공지 파트로 나눠서 볼 수 있도록</t>
-  </si>
-  <si>
-    <t>2) 각각 최근 5개 게시물까지 볼 수 있도록 list로 출력</t>
-  </si>
-  <si>
-    <t>6. 용품점 바로가기</t>
-  </si>
-  <si>
-    <t>1) 티밸런스 로고 넣어서 사이트 연결</t>
-  </si>
-  <si>
-    <t>7. 유투브</t>
-  </si>
-  <si>
-    <t>1) 티밸런스 유투브 계정 연결</t>
-  </si>
-  <si>
-    <t>2) 효영핑퐁 유투브 계정 연결</t>
-  </si>
-  <si>
-    <t>8. footer</t>
-  </si>
-  <si>
-    <t>1) copyright</t>
-  </si>
-  <si>
-    <t>2) 임원진 연락처</t>
-  </si>
-  <si>
-    <t>3) 인스타 계정</t>
-  </si>
-  <si>
-    <t>1. 로그인 안된 사람의 경우, 오른쪽 상단에 로그인/회원가입 버튼 뜨도록 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 게시글 제목, 일시, 장소, 요강 간단히 표시하고, '요강 자세히 보기' 버튼을 넣어서 클릭하면 해당 게시물의 상세 내용 페이지로 이동할 수 있도록 함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 공지사항 중 '모임공지'이면서 '참가자모집중'인 모임공지 중 일시가 가장 빠른 모임을 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 참가신청하기를 누르면 join페이지로 이동하여 해당 모임에 대한 '참가신청' 폼을 작성할 수 있도록 함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4) 팀원찾기를 누르면 team페이지로 이동. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 해당 아이디가 있으나 비번 틀리면 로그인 실패</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) 아이디/비번 입력
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 해당 아이디가 디비에 없으면 로그인 실패</t>
-  </si>
-  <si>
-    <t>1) 아이디/비번/비번확인/이름/이메일/성별/부수 입력</t>
-  </si>
-  <si>
-    <t>2) 빈칸 있으면 회원가입 안됨. 반드시 꽉 채워서</t>
-  </si>
-  <si>
-    <t>3) 아이디, 비번은 항상 8~15자의 영소문자+숫자 혼합으로 설정 가능</t>
-  </si>
-  <si>
-    <t>4) 이름은 한글로만 입력 가능</t>
-  </si>
-  <si>
-    <t>5) 부수는 반드시 숫자 선택</t>
-  </si>
-  <si>
-    <t>6) 비번과 비번확인은 항상 같아야 함.</t>
-  </si>
-  <si>
-    <t>7) 이메일 양식 지키기(~~@~~)</t>
-  </si>
-  <si>
-    <t>1) 이름/이메일 입력</t>
-  </si>
-  <si>
-    <t>2) 해당 이름이나 이메일이 DB에 없으면 경고문 띄우기('아이디가 존재하지 않습니다.')</t>
-  </si>
-  <si>
-    <t>3) 일치하는 이름+이메일이 DB에 있는 경우 해당 유저의 아이디를 경고문으로 띄우기</t>
-  </si>
-  <si>
-    <t>1) 이름/아이디/이메일 입력</t>
-  </si>
-  <si>
-    <t>2) 해당 이름/아이디/이메일이 DB에 없으면 경고문 띄우기('존재하는 계정이 없습니다.')</t>
-  </si>
-  <si>
-    <t>3) 해당 이름+아이디+이메일이 일치하는 계정이 DB에 있는 경우, 임시 비번을 해당 이메일로 발급 후 임시비번 발급했다는 경고문 띄우기</t>
-  </si>
-  <si>
-    <t>1) 아이디, 이름, 성별, 부수, 이메일, 내소개, 랭킹, 입상횟수 출력</t>
-  </si>
-  <si>
-    <t>2) 모두 접근 가능, 단 이메일 보는거랑/회원정보수정/회원탈퇴 버튼은 본인만 볼 수 있음</t>
-  </si>
-  <si>
-    <t>1) 비번 입력해서 현재 세션 유지 중인 유저의 비밀번호와 일치해야 회원 정보 수정이 가능</t>
-  </si>
-  <si>
-    <t>1) 비번 입력 시 회원정보 삭제 (userAvailable=0)</t>
   </si>
   <si>
     <t>랭킹게시판</t>
@@ -304,31 +158,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> what&gt;메인페이지&gt;마이페이지&gt;회원정보수정_전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> what&gt;메인페이지&gt;마이페이지&gt;회원탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) user 테이블에서 랭킹순/이름순으로 오름차순 정렬하여 회원정보 list로 갖고옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 한 페이지 당 20명씩 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 20명 이상인 경우 다음 페이지로 넘김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5) 순위는 우승 횟수 &gt; 준우승 횟수 &gt; 3위 횟수 순으로 결정됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6) 중복 횟수 존재 가능(5위가 2명인 경우 다음 순위는 7위부터 카운트하기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -344,14 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1) 질문 누르면 dropdown으로 답변 보일 수 있도록 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4) 아이디에 a태그 걸어서 클릭하면 해당 user의 모든 정보(비밀번호, 이메일 제외) 열람할 수 있도록 함(show_userInfo 페이지로 이동)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팀원찾기 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,35 +186,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1) 부수별로 검색 가능 -&gt; 1부 선택하면 부수가 1부인 회원들 이름순으로 나열</t>
+    <t>참가자목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2) 평소에는 이름 순으로 나역</t>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;참가자목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3) 이름, 성별, 부수, 아이디, 소개가 보이도록 출력</t>
+    <t xml:space="preserve">join_view.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4) 아이디 누르면 show_userInfo 페이지로 이동</t>
+    <t>참가신청 폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5) 한 페이지 당 20명씩 출력(그 이상은 다음페이지로 넘김)</t>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;참가신청 폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
+    <t xml:space="preserve">join.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7) 이름을 통해 회원 검색 가능(jquery)</t>
+    <t>내정보수정_전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검색 후 페이징처리</t>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;마이페이지&gt;내정보수정_전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;유저페이지&gt;내정보수정_전&gt;내정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">show_userInfo.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;랭킹게시판&gt;회원정보보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;공지게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">notice.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지게시판 &gt; view페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;공지게시판 &gt; view페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">notice_view.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -532,6 +398,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -545,22 +423,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -684,7 +553,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -695,8 +564,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="3117850"/>
-          <a:ext cx="1009650" cy="330200"/>
+          <a:off x="476250" y="3600450"/>
+          <a:ext cx="717550" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -735,15 +604,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
+      <xdr:colOff>1473200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -752,8 +621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1638300" y="3117850"/>
-          <a:ext cx="1073150" cy="330200"/>
+          <a:off x="2133600" y="3606800"/>
+          <a:ext cx="685800" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1026,10 +895,2231 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="모서리가 둥근 직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="3600450"/>
+          <a:ext cx="717550" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>참가자 확인</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="469900"/>
+          <a:ext cx="4210050" cy="8680450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>로그인 안된 사람의 경우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>오른쪽 상단에 로그인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>회원가입 버튼 뜨도록 함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>로그인한 사람의 경우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>오른쪽 상단에 마이페이지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>로그아웃 버튼 뜨도록 함</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>관리자일 경우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>오른쪽 상단에 관리자페이지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>로그아웃 버튼 뜨도록 함</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>모임 공지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>공지사항 중 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>모임공지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이면서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>참가자모집중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>인 모임공지 중 일시가 가장 빠른 모임을 표시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>게시글 제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>일시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>장소</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>요강 간단히 표시하고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>요강 자세히 보기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>버튼을 넣어서 클릭하면 해당 게시물의 상세 내용 페이지로 이동할 수 있도록 함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>참가신청하기를 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>join</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>페이지로 이동하여 해당 모임에 대한 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>참가신청</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>폼을 작성할 수 있도록 함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>팀원찾기를 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>team</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>참가자확인을 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>joinView</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>페이지로 이동하여 해당 모임에 대한 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>참가자 명단</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>을 확인할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>공지사항</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>공지사항을 일반공지 파트와 모임공지 파트로 나눠서 볼 수 있도록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>각각 최근 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>개 게시물까지 볼 수 있도록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>로 출력</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>용품점 바로가기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>티밸런스 로고 넣어서 사이트 연결</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>유투브</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>티밸런스 유투브 계정 연결</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>효영핑퐁 유투브 계정 연결</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8. footer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1) copyright</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>임원진 연락처</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>인스타 계정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1019387</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="514351"/>
+          <a:ext cx="5839037" cy="3727450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>132777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4241800"/>
+          <a:ext cx="5829300" cy="1802827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="482600"/>
+          <a:ext cx="3517900" cy="5911850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>유저들을 랭킹순 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>+ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이름순 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>오름차순</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>으로 정렬하여 회원정보 리스트 나열</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>한 페이지 당 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>명씩 출력</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>페이징 처리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이전페이지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>다음페이지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>검색기능 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>옵션 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이름 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>검색어 입력 후 이벤트 발생했을 때도 페이징 올바르게 적용</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>유저들의 아이디에는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>태그가 걸려있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>아이디 클릭하면 해당 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>userID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>를 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>parameter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>로 넘겨서 해당 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>의 정보를 열람할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(show_userInfo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>페이지로 이동 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>내 아이디인 경우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, mypage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>로 이동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>순위는 우승 횟수 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>준우승 횟수 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; 3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>위 횟수 순으로 결정됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>중복 순위 존재 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>위가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>명인 경우 다음 순위는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>위부터 카운트하기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1069,10 +3159,131 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="482600"/>
+          <a:ext cx="3187700" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. faq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>테이블에서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>bbsAvailable = 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>인 게시물들을 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>bbsID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>내림차순으로 불러옴</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2. bbsTitle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>을 리스트로 출력하고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, title </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>클릭하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>drop down</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>으로 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>content</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>볼 수 있게 설정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1150,6 +3361,2164 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5892800" y="501650"/>
+          <a:ext cx="3848100" cy="3568700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>현재 진행중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>페이지의 모임공지에 노출된</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>인 모임에 대해</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>해당 모임의 참가자 명단을 참고하여</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이미 참가자 명단에 포함된 유저들의 리스트는 노란색으로 배경 색칠</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>아직 참가신청 안한 사람들과 구분</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이름 오름차순으로 나열</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>검색기능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>옵션 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>부수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>아이디 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>아이디 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>show_userInfo </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t>내 아이디인 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>mypage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t>로 이동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>한 페이지 당 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>명씩 출력</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>페이징 처리</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>977901</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="647700"/>
+          <a:ext cx="6102350" cy="1874197"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="2533650"/>
+          <a:ext cx="5695950" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none"/>
+            <a:t>3       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rlaalstjsoo123    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>김민선</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2) / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이지연</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(7)           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" u="none"/>
+            <a:t>합부수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none"/>
+            <a:t>(9)          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" u="none"/>
+            <a:t>완료                         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none"/>
+            <a:t>2021-01-28    </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" u="none"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="2914650"/>
+          <a:ext cx="5695950" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2           klyljy95          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이유상</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(-2)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>김삿갓</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2)            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>합부수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(2)          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>대기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        2021-01-26</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3041650" y="2133600"/>
+          <a:ext cx="717550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>합부수</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="3390900"/>
+          <a:ext cx="2736850" cy="311150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;  1 2 3 4 5 &gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6337300" y="495300"/>
+          <a:ext cx="3371850" cy="1803400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. no</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>내림차순으로 리스트 출력</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(no, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>신청자 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가자이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>부수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>합부수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>입금상태</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>신청일</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>본인이 신청자인 경우에만 해당 게시물 옆에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>수정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>글씨가 뜸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.  -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가신청 수정페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>페이징 처리</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="2133600"/>
+          <a:ext cx="742950" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>신청일</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1225550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4432300" y="2527300"/>
+          <a:ext cx="546100" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>수정</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1299137</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="647701"/>
+          <a:ext cx="6010837" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1263650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2159000"/>
+          <a:ext cx="5975350" cy="2984500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6178550" y="482600"/>
+          <a:ext cx="3035300" cy="2374900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>해당 모임의 제목을 상단에 표시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가자 검색기능 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가자 검색 페이지로 이동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>) -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가자 검색을 통해 참가자를 선택하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가자 명단</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>에 자동으로 등록됨</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>신청자 연락처</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가수정 비번 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>자리</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>기타 건의사항을 입력 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가신청하면 신청인은 자동으로 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>본인 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>가 등록됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>813094</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="546100"/>
+          <a:ext cx="5727994" cy="4261069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>921043</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="4806950"/>
+          <a:ext cx="5696243" cy="1612983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6064250" y="482600"/>
+          <a:ext cx="3168650" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>중요공지는 최대 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>개까지 설정 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>배경 파란색으로 표시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>2. bbsID, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>공지종류</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>머릿말</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>상태</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>완료</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>진행중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>작성자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>작성일자 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>검색기능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>옵션 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>머릿말</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>내용</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>페이징처리</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4806950" y="1562100"/>
+          <a:ext cx="812800" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>686079</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="8343900"/>
+          <a:ext cx="5423179" cy="3822896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>768642</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7283450"/>
+          <a:ext cx="5683542" cy="1060505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="355600" y="12185650"/>
+          <a:ext cx="5099050" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>참가신청</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>진행중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)  / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>결과보기 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>완료</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368300" y="12611100"/>
+          <a:ext cx="5099050" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>참가자명단 확인</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="13030200"/>
+          <a:ext cx="5099050" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>목록</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5994400" y="7219950"/>
+          <a:ext cx="3168650" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. 'bbsType'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이 모임공지일 경우</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>게시판 제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작성자 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작성일자 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>모임날짜 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>모임장소 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>내용을 볼 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>일반공지일 경우</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>게시판 제목 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>작성자 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>작성일자 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>내용을 볼 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1195,15 +5564,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>336550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142732</xdr:rowOff>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1220,7 +5589,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="1485900"/>
+          <a:off x="133350" y="1460500"/>
           <a:ext cx="5334000" cy="1711182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1228,6 +5597,215 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="488950"/>
+          <a:ext cx="3225800" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>비번 입력</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>해당 아이디가 디비에 없거나 비밀번호가 일치하지 않을 경우 로그인 실패</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>로그인 성공 시 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>테이블의 최근 로그인 날짜 업데이트</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1310,6 +5888,644 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="527050"/>
+          <a:ext cx="3352800" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>비번</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>비번확인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이메일</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>성별</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>부수 입력</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>빈칸 있으면 회원가입 안됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>반드시 꽉 채워서</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>비번은 항상 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8~15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자의 영소문자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>숫자 혼합으로 설정 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이름은 한글로만 입력 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>비번과 비번확인은 항상 같아야 함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이메일 양식 지키기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(~~@~~)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회원가입 시 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>테이블에 저장되는 내용은 다음과 같음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>-&gt; (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>아이디 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이름 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>비밀번호</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>해싱</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>) / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이메일</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>해싱</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>) / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>성별 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>부수 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/ userAvailable = 1 / userRegdate = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>지금 날짜 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/ userLogdate = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>지금 날짜</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1351,6 +6567,304 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5130800" y="520700"/>
+          <a:ext cx="2425700" cy="2330450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이메일 입력</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>해당 이름이나 이메일이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>에 없으면 경고문 띄우기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>아이디가 존재하지 않습니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.')</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>일치하는 이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이메일이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>에 있는 경우 해당 유저의 아이디를 경고문으로 띄우기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1396,10 +6910,827 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5156200" y="527050"/>
+          <a:ext cx="3467100" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이메일 입력</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>해당 이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이메일이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>에 없으면 경고문 띄우기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>존재하는 계정이 없습니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.')</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>해당 이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이메일이 일치하는 계정이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>에 있는 경우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>임시 비번을 해당 이메일로 발급 후 임시비번 발급했다는 경고문 띄우기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="520701"/>
+          <a:ext cx="5308600" cy="1098018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5632450" y="501650"/>
+          <a:ext cx="2724150" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>다른 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>들의 정보를 확인할 수 있음</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>성별</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>부수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>내소개</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>랭킹</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>입상횟수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 확인 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>781303</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="1631950"/>
+          <a:ext cx="4915153" cy="4026107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1477,23 +7808,236 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5632450" y="501650"/>
+          <a:ext cx="2724150" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>내 정보를 확인할 수 있음 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>비밀번호</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> userAvailable </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>제외하고 모두 확인 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>회원 정보 수정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>회원탈퇴 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>877887</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2514601</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>84324</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1510,8 +8054,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="476250"/>
-          <a:ext cx="6523037" cy="3111500"/>
+          <a:off x="1" y="476250"/>
+          <a:ext cx="5168900" cy="2465574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,13 +8068,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12890</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2343340</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>70032</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1562,13 +8106,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>984577</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>787727</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1600,13 +8144,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>667069</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:colOff>470219</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>120718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1634,10 +8178,463 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6902450" y="527050"/>
+          <a:ext cx="2565400" cy="1079500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>비번 입력해서 현재 세션 유지 중인 유저의 비밀번호와 일치하면 회원정보 수정 페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="3733800"/>
+          <a:ext cx="2616200" cy="4406900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회원정보 수정을 위해서는 반드시 현재 비밀번호를 입력해야함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>..</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>변경 가능한 정보는 비번 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이메일 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>내소개 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>부수</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>비번 변경할 경우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>제한조건</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(8-15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자의 영소문자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>숫자 혼합</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이 충족되어야함</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이메일 변경할 경우 이메일 양식에 맞아야함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1677,85 +8674,102 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>82551</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1019387</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="514351"/>
-          <a:ext cx="5839037" cy="3727450"/>
+          <a:off x="5473700" y="584200"/>
+          <a:ext cx="2971800" cy="736600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>132777</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4241800"/>
-          <a:ext cx="5829300" cy="1802827"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>비번 입력 시 회원정보 삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(userAvailable=0)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2090,198 +9104,112 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
-        <v>44222</v>
-      </c>
-      <c r="G2" s="17" t="s">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="21"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="24"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -2346,13 +9274,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -2367,6 +9288,13 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2376,10 +9304,123 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="22.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.9140625" customWidth="1"/>
+    <col min="7" max="7" width="18.4140625" customWidth="1"/>
+    <col min="8" max="8" width="19.4140625" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G12" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2396,13 +9437,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
@@ -2417,27 +9458,25 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
-        <v>44223</v>
-      </c>
-      <c r="G2" s="17" t="s">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="18"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2451,12 +9490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2473,13 +9512,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
@@ -2494,51 +9533,280 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
-        <v>44223</v>
-      </c>
-      <c r="G2" s="17" t="s">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
+      <c r="H2" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="15.4140625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="16.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="6" max="6" width="18.4140625" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="20.9140625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="13">
+        <v>44224</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2589,39 +9857,33 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
-        <v>44222</v>
-      </c>
-      <c r="G2" s="17" t="s">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="18"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -2720,62 +9982,48 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
-        <v>44222</v>
-      </c>
-      <c r="G2" s="17" t="s">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -2842,7 +10090,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2883,38 +10131,32 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -2999,38 +10241,32 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -3089,7 +10325,153 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="16.4140625" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3106,13 +10488,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -3127,32 +10509,28 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
-        <v>44222</v>
-      </c>
-      <c r="G2" s="17" t="s">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -3234,18 +10612,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="30.58203125" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.08203125" customWidth="1"/>
     <col min="7" max="7" width="12.9140625" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
@@ -3256,13 +10634,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -3277,27 +10655,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="18"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -3343,188 +10719,180 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="13">
+        <v>44222</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="18" t="s">
-        <v>27</v>
-      </c>
+      <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G21:H51"/>
+    <mergeCell ref="G18:H48"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3532,12 +10900,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3555,13 +10923,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -3576,26 +10944,24 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -3651,154 +11017,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="22.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.9140625" customWidth="1"/>
-    <col min="7" max="7" width="18.4140625" customWidth="1"/>
-    <col min="8" max="8" width="19.4140625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="13">
-        <v>44223</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G5" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G6" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G12" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -401,15 +401,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -423,13 +414,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1840,9 +1840,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1852,9 +1852,9 @@
             <a:t>5) </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1864,9 +1864,9 @@
             <a:t>참가자확인을 누르면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1876,9 +1876,9 @@
             <a:t>joinView</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1888,9 +1888,9 @@
             <a:t>페이지로 이동하여 해당 모임에 대한 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1900,9 +1900,9 @@
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1912,9 +1912,9 @@
             <a:t>참가자 명단</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1924,9 +1924,9 @@
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1936,9 +1936,9 @@
             <a:t>을 확인할 수 있음</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6482,15 +6482,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>해싱</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>) / </a:t>
+            <a:t> / </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
@@ -9065,7 +9057,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9104,112 +9096,112 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -9274,6 +9266,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -9288,13 +9287,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9346,49 +9338,49 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G11" s="11"/>
@@ -9458,25 +9450,25 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9533,21 +9525,21 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9603,21 +9595,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9674,21 +9666,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9705,7 +9697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -9743,21 +9735,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
@@ -9785,21 +9777,21 @@
       <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="13">
         <v>44224</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9857,33 +9849,33 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -9943,7 +9935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -9982,21 +9974,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10131,21 +10123,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10241,21 +10233,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10363,21 +10355,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10509,21 +10501,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10655,25 +10647,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -10745,145 +10737,145 @@
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="13">
         <v>44222</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10944,21 +10936,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>

--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -401,6 +401,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -414,22 +423,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -9096,112 +9096,112 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -9266,13 +9266,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -9287,6 +9280,13 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9338,49 +9338,49 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G11" s="11"/>
@@ -9450,25 +9450,25 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9525,21 +9525,21 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9595,21 +9595,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9666,21 +9666,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9735,21 +9735,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
@@ -9777,21 +9777,21 @@
       <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="13">
         <v>44224</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9849,33 +9849,33 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -9935,7 +9935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -9974,21 +9974,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10123,21 +10123,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10233,21 +10233,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10355,21 +10355,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10501,21 +10501,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10608,8 +10608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10647,25 +10647,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -10737,145 +10737,145 @@
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="13">
         <v>44222</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10936,21 +10936,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>

--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -190,23 +190,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> what&gt;메인페이지&gt;참가자목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">join_view.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>참가신청 폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> what&gt;메인페이지&gt;참가신청 폼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">join.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,6 +247,18 @@
   </si>
   <si>
     <t xml:space="preserve">notice_view.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">join.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;참가자목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">join_write.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,15 +401,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -423,13 +414,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2674,7 +2674,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>으로 정렬하여 회원정보 리스트 나열</a:t>
+            <a:t>으로 정렬하여 회원정보 리스트 나열 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>where</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> userAvailable = 1</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
@@ -2700,7 +2708,10 @@
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
             <a:t>명씩 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(limit 20)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2713,28 +2724,52 @@
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이징 처리 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이전페이지</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>다음페이지</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>)</a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)**</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2781,7 +2816,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>아이디</a:t>
+            <a:t>아이디 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>부수</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
@@ -2796,10 +2839,74 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>검색어 입력 후 이벤트 발생했을 때도 페이징 올바르게 적용</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>옵션으로 부수 선택할 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>로 선택할 수 있게해서 해당 부수와 동일한 부수 가진 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>user </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>리스트를 나열</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2862,22 +2969,6 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>페이지로 이동 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>-&gt; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>내 아이디인 경우</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>, mypage</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>로 이동</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
@@ -3208,71 +3299,139 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. faq</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>테이블에서 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>bbsAvailable = 1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>인 게시물들을 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>bbsID </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>내림차순으로 불러옴</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. bbsTitle</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>을 리스트로 출력하고</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, title </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>클릭하면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>drop down</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>으로 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>content</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>볼 수 있게 설정</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
@@ -4385,15 +4544,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1225550</xdr:colOff>
+      <xdr:colOff>1250950</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>539750</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4402,7 +4561,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4432300" y="2527300"/>
+          <a:off x="4457700" y="2514600"/>
           <a:ext cx="546100" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9096,112 +9255,112 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -9266,6 +9425,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -9280,13 +9446,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9298,7 +9457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -9338,49 +9497,49 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G11" s="11"/>
@@ -9412,7 +9571,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9450,25 +9609,25 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9487,7 +9646,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9525,21 +9684,21 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9557,7 +9716,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9580,7 +9739,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>3</v>
@@ -9595,21 +9754,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9627,8 +9786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9645,13 +9804,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>3</v>
@@ -9666,21 +9825,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9714,13 +9873,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>3</v>
@@ -9735,34 +9894,34 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>3</v>
@@ -9777,21 +9936,21 @@
       <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="B33" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="13">
         <v>44224</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9849,33 +10008,33 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -9974,21 +10133,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10123,21 +10282,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10233,21 +10392,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10334,13 +10493,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>3</v>
@@ -10355,21 +10514,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10501,21 +10660,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10608,7 +10767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -10626,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -10647,25 +10806,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -10716,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -10737,145 +10896,145 @@
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="13">
         <v>44222</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10936,21 +11095,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>

--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,16 @@
     <sheet name="team" sheetId="11" r:id="rId12"/>
     <sheet name="참가자확인(모임게시판)" sheetId="12" r:id="rId13"/>
     <sheet name="참가신청 폼" sheetId="13" r:id="rId14"/>
-    <sheet name="공지게시판" sheetId="15" r:id="rId15"/>
+    <sheet name="참가신청 상세보기" sheetId="16" r:id="rId15"/>
+    <sheet name="공지게시판" sheetId="15" r:id="rId16"/>
+    <sheet name="결과게시판" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +263,46 @@
     <t xml:space="preserve">join_write.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>참가신청 내용 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;참가자확인&gt;참가신청 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">join_view.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;결과게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">result.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">result_view.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과게시판 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;메인페이지&gt;결과게시판&gt;결과게시판 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -401,6 +443,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -414,22 +468,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4689,8 +4734,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4700,7 +4745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6178550" y="482600"/>
-          <a:ext cx="3035300" cy="2374900"/>
+          <a:ext cx="3035300" cy="4946650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4753,7 +4798,47 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>참가자 검색기능 </a:t>
+            <a:t>참가자 검색</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>검색 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>text</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>에 유저 이름 검색</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>검색 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>해당 검색어 포함된 유저들 이름</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
@@ -4761,32 +4846,133 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>참가자 검색 페이지로 이동</a:t>
+            <a:t>아이디</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>) -&gt; </a:t>
+            <a:t>/</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>참가자 검색을 통해 참가자를 선택하면 </a:t>
+            <a:t>부수</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>'</a:t>
+            <a:t>)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>참가자 명단</a:t>
+            <a:t>가 리스트로 뜸</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>'</a:t>
+            <a:t>. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>에 자동으로 등록됨</a:t>
-          </a:r>
+            <a:t>이 때 리스트에 뜨는 유저들은 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>userAvailable = 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이어야 하고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>해당 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>join</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>모임의 참가자가 아니어야 함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>해당 리스트에서 체크박스를 체크하면 참가자 명단에 이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>부수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>가 들어감</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 체크표시 없애면 명단에서 삭제됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>해당 모임의 요구참가자 수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(joinMemberNum)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>만큼 참가신청을 해야함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
@@ -4865,6 +5051,278 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7073900" y="482600"/>
+          <a:ext cx="3035300" cy="3594100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>해당 모임의 제목을 상단에 표시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>신청자 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>연락처</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가자명단</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>건의사항</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>합부수가 표시됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>신청자 본인만 들어가서 열람이 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>목록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>join </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>수정버튼 누르면 수정 페이지로 입력 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>반드시 비번 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>자리 입력해야 수정 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>삭제버튼 누르면 비번 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>자리 입력하는 페이지로 이동 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>비번 맞으면 삭제 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1054101</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="647701"/>
+          <a:ext cx="6661150" cy="2850376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4952,8 +5410,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4962,8 +5420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6064250" y="482600"/>
-          <a:ext cx="3168650" cy="2419350"/>
+          <a:off x="6565900" y="482600"/>
+          <a:ext cx="3168650" cy="4502150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5028,7 +5486,75 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>2. bbsID, </a:t>
+            <a:t>2. '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>모임공지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>일 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>joinID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>얻기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>. '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>일반공지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>일 경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>joinID=0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>으로 설정</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>3. bbsID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>는 순서대로 얻기</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>4. bbsID, </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
@@ -5673,6 +6199,474 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
             <a:t>.</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585393</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577850"/>
+          <a:ext cx="5335193" cy="2629112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3198306"/>
+          <a:ext cx="5200650" cy="783206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5759450" y="495300"/>
+          <a:ext cx="2597150" cy="3422650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. bbsID/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작성자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>등록일자 표시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>제목 누르면 상세보기 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>페이징 처리</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>검색기능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>옵션 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>내용</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>808135</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4648200"/>
+          <a:ext cx="5557935" cy="1314550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="5956300"/>
+          <a:ext cx="5181600" cy="2425700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>모임제목</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작성자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작성일자</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>우승</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>준우승</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>위</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>내용</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>목록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5854700" y="4597400"/>
+          <a:ext cx="2546350" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9255,112 +10249,112 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -9425,13 +10419,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -9446,6 +10433,13 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9497,49 +10491,49 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G11" s="11"/>
@@ -9609,25 +10603,25 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9684,21 +10678,21 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9754,21 +10748,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9786,8 +10780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9825,21 +10819,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
-        <v>44224</v>
-      </c>
-      <c r="G2" s="18" t="s">
+        <v>44226</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9854,10 +10848,80 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="6" max="6" width="18.4140625" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>44226</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9894,21 +10958,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
@@ -9936,21 +11000,21 @@
       <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="13">
         <v>44224</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9958,6 +11022,120 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="G33:H33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.58203125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>44226</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="13">
+        <v>44226</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10008,33 +11186,33 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -10133,21 +11311,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10282,21 +11460,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10392,21 +11570,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10514,21 +11692,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10660,21 +11838,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -10806,25 +11984,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -10896,145 +12074,145 @@
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="13">
         <v>44222</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11095,21 +12273,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>

--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -446,15 +446,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -468,13 +459,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -10249,112 +10249,112 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -10419,6 +10419,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -10433,13 +10440,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10491,49 +10491,49 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G11" s="11"/>
@@ -10603,25 +10603,25 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10678,21 +10678,21 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10748,21 +10748,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10819,21 +10819,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10889,21 +10889,21 @@
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10958,21 +10958,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
@@ -11000,21 +11000,21 @@
       <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="13">
         <v>44224</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11033,7 +11033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -11072,21 +11072,21 @@
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
@@ -11114,21 +11114,21 @@
       <c r="A21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="13">
         <v>44226</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11186,33 +11186,33 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -11311,21 +11311,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11460,21 +11460,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11570,21 +11570,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11692,21 +11692,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11838,21 +11838,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11984,25 +11984,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -12074,145 +12074,145 @@
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="13">
         <v>44222</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12273,21 +12273,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>

--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -446,6 +446,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -459,22 +468,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -10249,112 +10249,112 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -10419,13 +10419,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -10440,6 +10433,13 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10491,49 +10491,49 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G11" s="11"/>
@@ -10603,25 +10603,25 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10678,21 +10678,21 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10748,21 +10748,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10819,21 +10819,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10889,21 +10889,21 @@
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10958,21 +10958,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
@@ -11000,21 +11000,21 @@
       <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="13">
         <v>44224</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11033,7 +11033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -11072,21 +11072,21 @@
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
@@ -11114,21 +11114,21 @@
       <c r="A21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="13">
         <v>44226</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11186,33 +11186,33 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -11311,21 +11311,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11460,21 +11460,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11570,21 +11570,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11692,21 +11692,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11838,21 +11838,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11984,25 +11984,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -12074,145 +12074,145 @@
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="13">
         <v>44222</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12273,21 +12273,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>

--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -446,15 +446,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -468,13 +459,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1007,8 +1007,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1018,7 +1018,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5791200" y="469900"/>
-          <a:ext cx="4210050" cy="8680450"/>
+          <a:ext cx="4210050" cy="5956300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1830,7 +1830,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>팀원찾기를 누르면 </a:t>
+            <a:t>팀원찾기를 누르면 해당 모임의 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
@@ -2667,6 +2667,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2690,82 +2693,158 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>유저들을 랭킹순 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>+ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이름순 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>오름차순</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>으로 정렬하여 회원정보 리스트 나열 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>where</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> userAvailable = 1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>한 페이지 당 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>20</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>명씩 출력</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(limit 20)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
@@ -2819,68 +2898,132 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>검색기능 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>-</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>옵션 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이름 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>아이디 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>부수</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>-</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
@@ -2955,68 +3098,132 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>5. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>유저들의 아이디에는 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>a</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>태그가 걸려있음</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>아이디 클릭하면 해당 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>userID</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>를 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>parameter</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로 넘겨서 해당 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>user</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>의 정보를 열람할 수 있음</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(show_userInfo</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
         </a:p>
@@ -3024,7 +3231,7 @@
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -3037,7 +3244,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3049,7 +3256,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3061,7 +3268,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3073,7 +3280,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3085,7 +3292,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3097,7 +3304,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3107,16 +3314,24 @@
             <a:t>위 횟수 순으로 결정됨</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -3129,7 +3344,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3141,7 +3356,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3153,7 +3368,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3165,7 +3380,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3177,7 +3392,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3189,7 +3404,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3201,7 +3416,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3213,7 +3428,7 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3225,7 +3440,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3235,12 +3450,16 @@
             <a:t>)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -3305,8 +3524,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3316,11 +3535,14 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5810250" y="482600"/>
-          <a:ext cx="3187700" cy="3429000"/>
+          <a:ext cx="3187700" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3344,137 +3566,137 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>1. faq</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>테이블에서 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>bbsAvailable = 1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>인 게시물들을 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>bbsID </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>내림차순으로 불러옴</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>2. bbsTitle</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>을 리스트로 출력하고</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>, title </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>클릭하면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>drop down</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>으로 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>content</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>볼 수 있게 설정</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>.</a:t>
@@ -3591,6 +3813,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3614,127 +3839,243 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>현재 진행중</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(index</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지의 모임공지에 노출된</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>인 모임에 대해</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해당 모임의 참가자 명단을 참고하여</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이미 참가자 명단에 포함된 유저들의 리스트는 노란색으로 배경 색칠</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>아직 참가신청 안한 사람들과 구분</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이름 오름차순으로 나열</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>검색기능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>옵션 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>부수</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>아이디 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -3745,9 +4086,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3757,9 +4098,9 @@
             <a:t>3.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3769,9 +4110,9 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3781,9 +4122,9 @@
             <a:t>아이디 누르면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3793,9 +4134,9 @@
             <a:t>show_userInfo </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3805,32 +4146,56 @@
             <a:t>페이지로 이동</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>내 아이디인 경우 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>mypage</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>로 이동</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -3840,9 +4205,9 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -3853,9 +4218,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3865,9 +4230,9 @@
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3877,9 +4242,9 @@
             <a:t>한 페이지 당 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3889,9 +4254,9 @@
             <a:t>20</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3900,9 +4265,9 @@
             </a:rPr>
             <a:t>명씩 출력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -3912,9 +4277,9 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -3925,9 +4290,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3937,9 +4302,9 @@
             <a:t>5.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3949,9 +4314,9 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -3961,10 +4326,13 @@
             <a:t>페이징 처리</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4300,64 +4668,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1092200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="직사각형 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1562100" y="3390900"/>
-          <a:ext cx="2736850" cy="311150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&lt;  1 2 3 4 5 &gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -4382,6 +4692,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4405,125 +4718,285 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. no</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>내림차순으로 리스트 출력</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(no, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>신청자 아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가자이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>부수</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>), </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>합부수</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>입금상태</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>신청일</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>본인이 신청자인 경우에만 해당 게시물 옆에 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>수정</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>' </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>글씨가 뜸</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.  -&gt; </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가신청 수정페이지로 이동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>페이징 처리</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>여기는 페이징 처리는 따로 안해도됨</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>* join_team </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>테이블에 신청날짜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>합부수 추가</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4750,6 +5223,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4773,275 +5249,539 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해당 모임의 제목을 상단에 표시</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가자 검색</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>검색 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>text</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>에 유저 이름 검색</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>검색 버튼 누르면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해당 검색어 포함된 유저들 이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>부수</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>가 리스트로 뜸</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이 때 리스트에 뜨는 유저들은 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>userAvailable = 1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이어야 하고</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해당 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>join</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>모임의 참가자가 아니어야 함</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해당 리스트에서 체크박스를 체크하면 참가자 명단에 이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>부수</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>가 들어감</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> 체크표시 없애면 명단에서 삭제됨</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해당 모임의 요구참가자 수</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(joinMemberNum)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>만큼 참가신청을 해야함</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>신청자 연락처</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가수정 비번 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>자리</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>기타 건의사항을 입력 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>-&gt; </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가신청하면 신청인은 자동으로 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>본인 아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>가 등록됨</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. </a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5062,8 +5802,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5073,11 +5813,14 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7073900" y="482600"/>
-          <a:ext cx="3035300" cy="3594100"/>
+          <a:ext cx="3035300" cy="3676650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5101,181 +5844,357 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해당 모임의 제목을 상단에 표시</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>신청자 아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>연락처</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가자명단</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>건의사항</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>합부수가 표시됨</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>신청자 본인만 들어가서 열람이 가능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>목록</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>버튼 누르면 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>join </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이지로 이동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>5. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>수정버튼 누르면 수정 페이지로 입력 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>-&gt; </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>반드시 비번 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>자리 입력해야 수정 가능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>6. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>삭제버튼 누르면 비번 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>자리 입력하는 페이지로 이동 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>-&gt; </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비번 맞으면 삭제 가능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5426,6 +6345,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5449,242 +6371,490 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>중요공지는 최대 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>10</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>개까지 설정 가능</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>-&gt; </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>배경 파란색으로 표시</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>모임공지</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>일 경우 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>joinID </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>얻기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. '</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>일반공지</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>일 경우 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>joinID=0</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>으로 설정</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. bbsID</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>는 순서대로 얻기</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. bbsID, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>공지종류</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>머릿말</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>), </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>제목</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>상태</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>완료</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>진행중</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>), </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>작성자</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>작성일자 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>검색기능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>옵션 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>제목</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>머릿말</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>내용</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이징처리</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6054,6 +7224,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6077,126 +7250,246 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. 'bbsType'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이 모임공지일 경우</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>-</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>게시판 제목</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>작성자 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>작성일자 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>모임날짜 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>모임장소 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>내용을 볼 수 있음</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>일반공지일 경우</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>게시판 제목 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>작성자 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>작성일자 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>내용을 볼 수 있음</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>.</a:t>
           </a:r>
         </a:p>
@@ -6311,6 +7604,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6334,110 +7630,218 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. bbsID/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>제목</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>작성자</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>등록일자 표시</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>제목 누르면 상세보기 가능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>페이징 처리</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>검색기능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>-</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>옵션 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>제목</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>내용</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6644,6 +8048,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6666,7 +8073,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6778,6 +8189,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6801,13 +8215,17 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6817,9 +8235,9 @@
             <a:t>아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6829,9 +8247,9 @@
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6841,9 +8259,9 @@
             <a:t>비번 입력</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6852,9 +8270,9 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6864,9 +8282,9 @@
             <a:t>2.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6876,9 +8294,9 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6888,17 +8306,25 @@
             <a:t>해당 아이디가 디비에 없거나 비밀번호가 일치하지 않을 경우 로그인 실패</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6908,9 +8334,9 @@
             <a:t>3.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6920,9 +8346,9 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6932,9 +8358,9 @@
             <a:t>로그인 성공 시 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6944,9 +8370,9 @@
             <a:t>user</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -6955,7 +8381,11 @@
             </a:rPr>
             <a:t>테이블의 최근 로그인 날짜 업데이트</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7067,6 +8497,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7090,13 +8523,17 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7106,9 +8543,9 @@
             <a:t>1.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7118,9 +8555,9 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7130,9 +8567,9 @@
             <a:t>아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7142,9 +8579,9 @@
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7154,9 +8591,9 @@
             <a:t>비번</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7166,9 +8603,9 @@
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7178,9 +8615,9 @@
             <a:t>비번확인</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7190,9 +8627,9 @@
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7202,9 +8639,9 @@
             <a:t>이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7214,9 +8651,9 @@
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7226,9 +8663,9 @@
             <a:t>이메일</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7238,9 +8675,9 @@
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7250,9 +8687,9 @@
             <a:t>성별</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7262,9 +8699,9 @@
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7273,9 +8710,9 @@
             </a:rPr>
             <a:t>부수 입력</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -7286,9 +8723,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7298,9 +8735,9 @@
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7310,9 +8747,9 @@
             <a:t>빈칸 있으면 회원가입 안됨</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7322,9 +8759,9 @@
             <a:t>. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7334,17 +8771,25 @@
             <a:t>반드시 꽉 채워서</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7354,9 +8799,9 @@
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7366,9 +8811,9 @@
             <a:t>아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7378,9 +8823,9 @@
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7390,9 +8835,9 @@
             <a:t>비번은 항상 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7402,9 +8847,9 @@
             <a:t>8~15</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7414,9 +8859,9 @@
             <a:t>자의 영소문자</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7426,9 +8871,9 @@
             <a:t>+</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7438,17 +8883,25 @@
             <a:t>숫자 혼합으로 설정 가능</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7458,9 +8911,9 @@
             <a:t>4.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7470,17 +8923,25 @@
             <a:t>이름은 한글로만 입력 가능</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7490,9 +8951,9 @@
             <a:t>5. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7502,9 +8963,9 @@
             <a:t>비번과 비번확인은 항상 같아야 함</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7514,12 +8975,16 @@
             <a:t>.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -7530,9 +8995,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7542,9 +9007,9 @@
             <a:t>6. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7554,9 +9019,9 @@
             <a:t>이메일 양식 지키기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7566,106 +9031,210 @@
             <a:t>(~~@~~)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>7. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>회원가입 시 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>user</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>테이블에 저장되는 내용은 다음과 같음</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>-&gt; (</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>아이디 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이름 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>비밀번호</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해싱</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>) / </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>이메일</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> / </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>성별 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>부수 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ userAvailable = 1 / userRegdate = </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>지금 날짜 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/ userLogdate = </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>지금 날짜</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7740,6 +9309,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7763,13 +9335,17 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7779,9 +9355,9 @@
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7791,9 +9367,9 @@
             <a:t>이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7803,9 +9379,9 @@
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7815,12 +9391,16 @@
             <a:t>이메일 입력</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -7831,9 +9411,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7843,9 +9423,9 @@
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7855,9 +9435,9 @@
             <a:t>해당 이름이나 이메일이 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7867,9 +9447,9 @@
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7879,9 +9459,9 @@
             <a:t>에 없으면 경고문 띄우기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7891,9 +9471,9 @@
             <a:t>('</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7903,9 +9483,9 @@
             <a:t>아이디가 존재하지 않습니다</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7915,12 +9495,16 @@
             <a:t>.')</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -7931,9 +9515,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7943,9 +9527,9 @@
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7955,9 +9539,9 @@
             <a:t>일치하는 이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7967,9 +9551,9 @@
             <a:t>+</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7979,9 +9563,9 @@
             <a:t>이메일이 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -7991,9 +9575,9 @@
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8003,10 +9587,13 @@
             <a:t>에 있는 경우 해당 유저의 아이디를 경고문으로 띄우기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8081,6 +9668,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -8104,236 +9694,240 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이메일 입력</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>해당 이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이메일이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>에 없으면 경고문 띄우기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>존재하는 계정이 없습니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.')</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>이름</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>아이디</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>이메일 입력</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>해당 이름</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>아이디</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>이메일이 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>에 없으면 경고문 띄우기</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>('</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>존재하는 계정이 없습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.')</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -8344,9 +9938,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8356,9 +9950,9 @@
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8368,9 +9962,9 @@
             <a:t>해당 이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8380,9 +9974,9 @@
             <a:t>+</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8392,9 +9986,9 @@
             <a:t>아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8404,9 +9998,9 @@
             <a:t>+</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8416,9 +10010,9 @@
             <a:t>이메일이 일치하는 계정이 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8428,9 +10022,9 @@
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8440,9 +10034,9 @@
             <a:t>에 있는 경우</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8452,9 +10046,9 @@
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8464,10 +10058,13 @@
             <a:t>임시 비번을 해당 이메일로 발급 후 임시비번 발급했다는 경고문 띄우기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8542,6 +10139,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -8565,13 +10165,17 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8581,9 +10185,9 @@
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8593,9 +10197,9 @@
             <a:t>다른 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8605,9 +10209,9 @@
             <a:t>user</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8616,9 +10220,9 @@
             </a:rPr>
             <a:t>들의 정보를 확인할 수 있음</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -8629,9 +10233,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8641,9 +10245,9 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8653,9 +10257,9 @@
             <a:t>아이디</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8665,9 +10269,9 @@
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8677,9 +10281,9 @@
             <a:t>이름</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8689,9 +10293,9 @@
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8701,9 +10305,9 @@
             <a:t>성별</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8713,9 +10317,9 @@
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8725,9 +10329,9 @@
             <a:t>부수</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8737,9 +10341,9 @@
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8749,9 +10353,9 @@
             <a:t>내소개</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8761,9 +10365,9 @@
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8773,9 +10377,9 @@
             <a:t>랭킹</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8785,9 +10389,9 @@
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8797,9 +10401,9 @@
             <a:t>입상횟수</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8809,9 +10413,9 @@
             <a:t> 확인 가능</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8820,9 +10424,9 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -8963,8 +10567,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8974,11 +10578,14 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5632450" y="501650"/>
-          <a:ext cx="2724150" cy="1625600"/>
+          <a:ext cx="2724150" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -9002,13 +10609,17 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9018,9 +10629,9 @@
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9030,9 +10641,9 @@
             <a:t>내 정보를 확인할 수 있음 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9042,9 +10653,9 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9054,9 +10665,9 @@
             <a:t>비밀번호</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9066,9 +10677,9 @@
             <a:t>,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9078,9 +10689,9 @@
             <a:t> userAvailable </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9090,9 +10701,9 @@
             <a:t>제외하고 모두 확인 가능</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9104,10 +10715,22 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9117,9 +10740,9 @@
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9129,9 +10752,9 @@
             <a:t>회원 정보 수정 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9141,9 +10764,9 @@
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9152,9 +10775,9 @@
             </a:rPr>
             <a:t>회원탈퇴 가능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -9349,6 +10972,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -9372,13 +10998,17 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9388,9 +11018,9 @@
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9399,7 +11029,11 @@
             </a:rPr>
             <a:t>비번 입력해서 현재 세션 유지 중인 유저의 비밀번호와 일치하면 회원정보 수정 페이지로 이동</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9415,8 +11049,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9426,11 +11060,14 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6877050" y="3733800"/>
-          <a:ext cx="2616200" cy="4406900"/>
+          <a:ext cx="2616200" cy="2203450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -9454,36 +11091,60 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>회원정보 수정을 위해서는 반드시 현재 비밀번호를 입력해야함</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>..</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9493,9 +11154,9 @@
             <a:t>변경 가능한 정보는 비번 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9505,9 +11166,9 @@
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9517,9 +11178,9 @@
             <a:t>이메일 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9529,9 +11190,9 @@
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9541,9 +11202,9 @@
             <a:t>내소개 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9553,9 +11214,9 @@
             <a:t>/ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9565,9 +11226,9 @@
             <a:t>부수</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9575,9 +11236,9 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
           </a:br>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -9588,9 +11249,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9600,9 +11261,9 @@
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9612,9 +11273,9 @@
             <a:t>비번 변경할 경우</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9624,9 +11285,9 @@
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9636,9 +11297,9 @@
             <a:t>제한조건</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9648,9 +11309,9 @@
             <a:t>(8-15</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9660,9 +11321,9 @@
             <a:t>자의 영소문자</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9672,9 +11333,9 @@
             <a:t>+</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9684,9 +11345,9 @@
             <a:t>숫자 혼합</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9696,9 +11357,9 @@
             <a:t>)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9708,9 +11369,9 @@
             <a:t>이 충족되어야함</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9718,9 +11379,9 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
           </a:br>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -9731,9 +11392,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9743,9 +11404,9 @@
             <a:t>4.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9755,9 +11416,9 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9767,10 +11428,13 @@
             <a:t>이메일 변경할 경우 이메일 양식에 맞아야함</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9845,6 +11509,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -9868,13 +11535,17 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9884,9 +11555,9 @@
             <a:t>1) </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9896,9 +11567,9 @@
             <a:t>비번 입력 시 회원정보 삭제 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9908,10 +11579,18 @@
             <a:t>(userAvailable=0)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10249,112 +11928,112 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -10419,6 +12098,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -10433,13 +12119,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10451,7 +12130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -10491,49 +12170,49 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G11" s="11"/>
@@ -10603,25 +12282,25 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10640,7 +12319,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10678,21 +12357,21 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10710,7 +12389,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10748,21 +12427,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10780,7 +12459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -10819,21 +12498,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10889,21 +12568,21 @@
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10920,8 +12599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10958,21 +12637,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
@@ -11000,21 +12679,21 @@
       <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="13">
         <v>44224</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11033,8 +12712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11072,21 +12751,21 @@
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
@@ -11114,21 +12793,21 @@
       <c r="A21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="13">
         <v>44226</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11186,33 +12865,33 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -11272,7 +12951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -11311,21 +12990,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11460,21 +13139,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11532,7 +13211,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11570,21 +13249,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11654,7 +13333,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11692,21 +13371,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11800,7 +13479,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11838,21 +13517,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -11945,7 +13624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -11984,25 +13663,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -12074,145 +13753,145 @@
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="13">
         <v>44222</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12273,21 +13952,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>

--- a/어쩌다리그 화면설계.xlsx
+++ b/어쩌다리그 화면설계.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="742" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="메인페이지" sheetId="1" r:id="rId1"/>
@@ -446,6 +446,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -459,22 +468,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4383,291 +4383,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="177800" y="2533650"/>
-          <a:ext cx="5695950" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none"/>
-            <a:t>3       </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>rlaalstjsoo123    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>김민선</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(2) / </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>이지연</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(7)           </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" u="none"/>
-            <a:t>합부수</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none"/>
-            <a:t>(9)          </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" u="none"/>
-            <a:t>완료                         </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none"/>
-            <a:t>2021-01-28    </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" u="none"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="165100" y="2914650"/>
-          <a:ext cx="5695950" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>2           klyljy95          </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>이유상</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(-2)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> / </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>김삿갓</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(2)            </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>합부수</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>(2)          </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>대기</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                        2021-01-26</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="직사각형 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3041650" y="2133600"/>
-          <a:ext cx="717550" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>합부수</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -4937,7 +4652,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4945,56 +4660,16 @@
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>여기는 페이징 처리는 따로 안해도됨</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>* join_team </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>테이블에 신청날짜</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>합부수 추가</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5052,68 +4727,49 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>신청일</a:t>
+            <a:t>청일</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1250950</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>958850</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>81047</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="직사각형 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4457700" y="2514600"/>
-          <a:ext cx="546100" cy="317500"/>
+          <a:off x="19050" y="1625601"/>
+          <a:ext cx="6064250" cy="1262146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>수정</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5961,7 +5617,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>합부수가 표시됨</a:t>
+            <a:t>합부수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>신청날짜가 표시됨</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
@@ -6230,6 +5902,44 @@
         <a:xfrm>
           <a:off x="1" y="647701"/>
           <a:ext cx="6661150" cy="2850376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="146050" y="1729138"/>
+          <a:ext cx="6343650" cy="2207861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11928,112 +11638,112 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="7:9" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="7:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="7:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.45">
@@ -12098,13 +11808,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:H2"/>
@@ -12119,6 +11822,13 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12170,49 +11880,49 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G11" s="11"/>
@@ -12282,25 +11992,25 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12357,21 +12067,21 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12388,8 +12098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12427,21 +12137,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12459,7 +12169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -12498,21 +12208,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12529,8 +12239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12568,21 +12278,21 @@
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12599,7 +12309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -12637,21 +12347,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
@@ -12679,21 +12389,21 @@
       <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="13">
         <v>44224</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12712,7 +12422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -12751,21 +12461,21 @@
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44226</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
@@ -12793,21 +12503,21 @@
       <c r="A21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="13">
         <v>44226</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12865,33 +12575,33 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G6" s="5"/>
@@ -12990,21 +12700,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -13139,21 +12849,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -13249,21 +12959,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -13371,21 +13081,21 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -13517,21 +13227,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44224</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
@@ -13663,25 +13373,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G4" s="9"/>
@@ -13753,145 +13463,145 @@
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="13">
         <v>44222</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13952,21 +13662,21 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="13">
         <v>44222</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="8"/>
